--- a/testData/test615F.xlsx
+++ b/testData/test615F.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webca\eclipse-workspace\ordercenterASI\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21BFEC8-A462-4C49-98FF-FB3D97D2A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8CBF8-D28F-4D25-BE27-0AE9CD652213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C79CDE38-6E51-4CF3-BC9F-3AE517C6A6F8}"/>
+    <workbookView xWindow="11832" yWindow="780" windowWidth="10944" windowHeight="11076" xr2:uid="{C79CDE38-6E51-4CF3-BC9F-3AE517C6A6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -93,9 +84,6 @@
     <t>AdditionalPhotocellHieght</t>
   </si>
   <si>
-    <t>09-21-2023</t>
-  </si>
-  <si>
     <t>615F</t>
   </si>
   <si>
@@ -136,6 +124,15 @@
   </si>
   <si>
     <t>AdditionalPhotocell</t>
+  </si>
+  <si>
+    <t>doornumber</t>
+  </si>
+  <si>
+    <t>fdsfs1231</t>
+  </si>
+  <si>
+    <t>10-26-2023</t>
   </si>
 </sst>
 </file>
@@ -159,10 +156,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -171,8 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,14 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5285B4-E043-40DB-9121-26606EAABC77}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -508,132 +535,137 @@
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1">
+        <v>112</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2">
-        <v>140</v>
-      </c>
-      <c r="F2">
-        <v>140</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
+      <c r="U2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
